--- a/validation_checks/0.3.0/S-158_129_0_3_0_20250401.xlsx
+++ b/validation_checks/0.3.0/S-158_129_0_3_0_20250401.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\S-129-Product-Specification\validation_checks\0.3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0A9B5-B477-4E39-976C-FFE220EE98EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E35592-4903-4D23-86D8-3220360798F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{D500D42E-56ED-44C2-B321-3F3845968AA3}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{D500D42E-56ED-44C2-B321-3F3845968AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="S100ValiSpec metadata" sheetId="11" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="244">
   <si>
     <t>Classification</t>
   </si>
@@ -1765,15 +1765,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Highlight = Removed</t>
-  </si>
-  <si>
-    <t>Highlight = Added</t>
-  </si>
-  <si>
-    <t>Highlight = Tentatively added; to be removed if already covered by another check</t>
   </si>
   <si>
     <t>S-129 PT</t>
@@ -2088,6 +2079,9 @@
 1) Removal generic checks
 2) Add new checks
 Check "S129_Dev0015" has also been re-inserted as there's no generic S-100 level equivalent check necessitated by Part 10b</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2300,26 +2294,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2462,6 +2438,30 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2631,20 +2631,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2714,6 +2705,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3093,29 +3093,29 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.84375" customWidth="1"/>
-    <col min="2" max="2" width="20.84375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="36" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="6" width="14.69140625" customWidth="1"/>
-    <col min="7" max="7" width="6.3828125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="33.65" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="90" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>21</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
@@ -3211,19 +3211,19 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="16" t="s">
         <v>11</v>
@@ -3237,8 +3237,8 @@
       <c r="F12" s="18"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="89" t="s">
+    <row r="13" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -3251,8 +3251,8 @@
       <c r="F13" s="29"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="89"/>
+    <row r="14" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="86"/>
       <c r="C14" s="30" t="s">
         <v>62</v>
       </c>
@@ -3263,39 +3263,39 @@
       <c r="F14" s="32"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="89"/>
+    <row r="15" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="86"/>
       <c r="C15" s="33"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="F15" s="31"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="2:8" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="89"/>
+    <row r="16" spans="2:8" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="86"/>
       <c r="C16" s="22"/>
       <c r="D16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="2:7" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="89"/>
+    <row r="17" spans="2:7" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="86"/>
       <c r="C17" s="23"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="89"/>
+    <row r="18" spans="2:7" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="86"/>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:7" s="6" customFormat="1" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" s="6" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
@@ -3303,7 +3303,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="15"/>
     </row>
@@ -3329,258 +3329,258 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.53515625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="37.53515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.3046875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="70.15234375" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3828125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="62.15234375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="41" customWidth="1"/>
-    <col min="10" max="10" width="8.3046875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="70.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="62.140625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="41" customWidth="1"/>
     <col min="11" max="11" width="8" style="41" customWidth="1"/>
-    <col min="12" max="12" width="11.3046875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69140625" style="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="88" customFormat="1" ht="25.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" s="85" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C5" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="72" t="s">
+      <c r="D5" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="25.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="72" t="s">
+      <c r="H7" s="78" t="s">
         <v>240</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>243</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>59</v>
@@ -3592,48 +3592,48 @@
       </c>
       <c r="M7" s="58"/>
     </row>
-    <row r="8" spans="1:13" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="77" t="s">
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="25.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="74" t="s">
+      <c r="B9" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="71" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -3645,63 +3645,63 @@
       <c r="F9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="77" t="s">
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="74" t="s">
+      <c r="B10" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="77" t="s">
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="37" t="s">
@@ -3711,31 +3711,31 @@
         <v>36</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="77" t="s">
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="74" t="s">
+      <c r="B12" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="71" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="37" t="s">
@@ -3745,31 +3745,31 @@
         <v>37</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="77" t="s">
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="74" t="s">
+      <c r="B13" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="71" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -3779,67 +3779,67 @@
         <v>78</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="77" t="s">
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="74" t="s">
+      <c r="B14" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="77" t="s">
+      <c r="J14" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="70"/>
+      <c r="L14" s="74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="72" t="s">
+    <row r="15" spans="1:13" s="61" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="71" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="37" t="s">
@@ -3851,29 +3851,29 @@
       <c r="F15" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83" t="s">
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:13" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="74" t="s">
+      <c r="B16" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="37" t="s">
@@ -3882,32 +3882,32 @@
       <c r="E16" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83" t="s">
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -3916,32 +3916,32 @@
       <c r="E17" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:12" s="61" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="74" t="s">
+      <c r="B18" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="37" t="s">
@@ -3950,32 +3950,32 @@
       <c r="E18" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83" t="s">
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A19" s="72" t="s">
+    <row r="19" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="74" t="s">
+      <c r="B19" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -3984,501 +3984,501 @@
       <c r="E19" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="H19" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="82" t="s">
+      <c r="I19" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83" t="s">
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:12" s="61" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="61" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="72" t="s">
+      <c r="C23" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="82" t="s">
+      <c r="H23" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83" t="s">
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="73" t="s">
+    <row r="24" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="82" t="s">
+      <c r="C24" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83" t="s">
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A22" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="73" t="s">
+    <row r="25" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="82" t="s">
+      <c r="C25" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83" t="s">
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A23" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="73" t="s">
+    <row r="26" spans="1:12" s="61" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C26" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="82" t="s">
+      <c r="D26" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83" t="s">
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A24" s="72" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="73" t="s">
+    <row r="27" spans="1:12" s="61" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C27" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="72" t="s">
+      <c r="D27" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="82" t="s">
+      <c r="H27" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83" t="s">
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A25" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="73" t="s">
+    <row r="28" spans="1:12" s="61" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C28" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="72" t="s">
+      <c r="D28" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="I25" s="82" t="s">
+      <c r="H29" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83" t="s">
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="61" customFormat="1" ht="77.150000000000006" x14ac:dyDescent="0.35">
-      <c r="A26" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="74" t="s">
+    <row r="30" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="72" t="s">
+      <c r="D30" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="82" t="s">
+      <c r="H30" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83" t="s">
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="61" customFormat="1" ht="77.150000000000006" x14ac:dyDescent="0.35">
-      <c r="A27" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="74" t="s">
+    <row r="31" spans="1:12" s="61" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="72" t="s">
+      <c r="D31" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="82" t="s">
+      <c r="H31" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83" t="s">
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="74" t="s">
+    <row r="32" spans="1:12" s="61" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" s="82" t="s">
+      <c r="D32" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83" t="s">
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="72" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="72" t="s">
+    <row r="33" spans="1:12" s="61" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="82" t="s">
+      <c r="H33" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="I33" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83" t="s">
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A30" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="61" customFormat="1" ht="51.45" x14ac:dyDescent="0.35">
-      <c r="A31" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="72" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="61" customFormat="1" ht="38.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="1"/>
       <c r="C34" s="47"/>
@@ -4491,7 +4491,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
       <c r="B35" s="1"/>
       <c r="C35" s="47"/>
@@ -4504,7 +4504,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
       <c r="B36" s="1"/>
       <c r="C36" s="47"/>
@@ -4517,7 +4517,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="47"/>
       <c r="B37" s="1"/>
       <c r="C37" s="47"/>
@@ -4530,7 +4530,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
       <c r="B38" s="1"/>
       <c r="C38" s="47"/>
@@ -4543,7 +4543,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="47"/>
       <c r="B39" s="1"/>
       <c r="C39" s="47"/>
@@ -4556,7 +4556,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="47"/>
       <c r="B40" s="1"/>
       <c r="C40" s="47"/>
@@ -4569,7 +4569,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
       <c r="B41" s="1"/>
       <c r="C41" s="47"/>
@@ -4582,7 +4582,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
       <c r="B42" s="1"/>
       <c r="C42" s="47"/>
@@ -4595,7 +4595,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
       <c r="B43" s="1"/>
       <c r="C43" s="47"/>
@@ -4608,7 +4608,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
       <c r="B44" s="1"/>
       <c r="C44" s="47"/>
@@ -4621,7 +4621,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
       <c r="B45" s="1"/>
       <c r="C45" s="47"/>
@@ -4634,7 +4634,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
       <c r="B46" s="1"/>
       <c r="C46" s="47"/>
@@ -4647,7 +4647,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
       <c r="B47" s="1"/>
       <c r="C47" s="47"/>
@@ -4660,7 +4660,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
       <c r="B48" s="1"/>
       <c r="C48" s="47"/>
@@ -4673,7 +4673,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="1"/>
       <c r="C49" s="47"/>
@@ -4686,7 +4686,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
       <c r="B50" s="1"/>
       <c r="C50" s="47"/>
@@ -4699,7 +4699,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
       <c r="B51" s="1"/>
       <c r="C51" s="47"/>
@@ -4712,7 +4712,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="47"/>
       <c r="B52" s="1"/>
       <c r="C52" s="47"/>
@@ -4725,7 +4725,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="47"/>
       <c r="B53" s="1"/>
       <c r="C53" s="47"/>
@@ -4738,7 +4738,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="47"/>
       <c r="B54" s="1"/>
       <c r="C54" s="47"/>
@@ -4751,7 +4751,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
       <c r="B55" s="1"/>
       <c r="C55" s="47"/>
@@ -4764,7 +4764,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="47"/>
       <c r="B56" s="1"/>
       <c r="C56" s="47"/>
@@ -4777,7 +4777,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
       <c r="B57" s="1"/>
       <c r="C57" s="47"/>
@@ -4790,7 +4790,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="47"/>
       <c r="B58" s="1"/>
       <c r="C58" s="47"/>
@@ -4803,7 +4803,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
       <c r="B59" s="1"/>
       <c r="C59" s="47"/>
@@ -4816,7 +4816,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="47"/>
       <c r="B60" s="1"/>
       <c r="C60" s="47"/>
@@ -4829,7 +4829,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="47"/>
       <c r="B61" s="1"/>
       <c r="C61" s="47"/>
@@ -4842,7 +4842,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="47"/>
       <c r="B62" s="1"/>
       <c r="C62" s="47"/>
@@ -4855,7 +4855,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="47"/>
       <c r="B63" s="1"/>
       <c r="C63" s="47"/>
@@ -4868,7 +4868,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="47"/>
       <c r="B64" s="1"/>
       <c r="C64" s="47"/>
@@ -4881,7 +4881,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="47"/>
       <c r="B65" s="1"/>
       <c r="C65" s="47"/>
@@ -4894,7 +4894,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="46"/>
       <c r="B66" s="1"/>
       <c r="C66" s="47"/>
@@ -4907,7 +4907,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="46"/>
       <c r="B67" s="1"/>
       <c r="C67" s="47"/>
@@ -4920,7 +4920,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="47"/>
       <c r="B68" s="1"/>
       <c r="C68" s="47"/>
@@ -4933,7 +4933,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="47"/>
       <c r="B69" s="1"/>
       <c r="C69" s="47"/>
@@ -4946,7 +4946,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="47"/>
       <c r="B70" s="1"/>
       <c r="C70" s="47"/>
@@ -4959,7 +4959,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
       <c r="B71" s="1"/>
       <c r="C71" s="47"/>
@@ -4972,7 +4972,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="47"/>
       <c r="B72" s="1"/>
       <c r="C72" s="47"/>
@@ -4985,7 +4985,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="47"/>
       <c r="B73" s="1"/>
       <c r="C73" s="47"/>
@@ -4998,7 +4998,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="47"/>
       <c r="B74" s="1"/>
       <c r="C74" s="47"/>
@@ -5011,7 +5011,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="47"/>
       <c r="B75" s="1"/>
       <c r="C75" s="47"/>
@@ -5024,7 +5024,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="47"/>
       <c r="B76" s="1"/>
       <c r="C76" s="47"/>
@@ -5037,7 +5037,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="47"/>
       <c r="B77" s="1"/>
       <c r="C77" s="47"/>
@@ -5050,7 +5050,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="47"/>
       <c r="B78" s="1"/>
       <c r="C78" s="47"/>
@@ -5063,7 +5063,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="47"/>
       <c r="B79" s="1"/>
       <c r="C79" s="47"/>
@@ -5076,7 +5076,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="47"/>
       <c r="B80" s="1"/>
       <c r="C80" s="47"/>
@@ -5089,7 +5089,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="47"/>
       <c r="B81" s="1"/>
       <c r="C81" s="47"/>
@@ -5102,7 +5102,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="47"/>
       <c r="B82" s="1"/>
       <c r="C82" s="47"/>
@@ -5115,7 +5115,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="47"/>
       <c r="B83" s="1"/>
       <c r="C83" s="47"/>
@@ -5128,7 +5128,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="47"/>
       <c r="B84" s="1"/>
       <c r="C84" s="47"/>
@@ -5141,7 +5141,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="47"/>
       <c r="B85" s="1"/>
       <c r="C85" s="47"/>
@@ -5154,7 +5154,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="47"/>
       <c r="B86" s="1"/>
       <c r="C86" s="47"/>
@@ -5167,7 +5167,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="47"/>
       <c r="B87" s="1"/>
       <c r="C87" s="47"/>
@@ -5180,7 +5180,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="47"/>
       <c r="B88" s="1"/>
       <c r="C88" s="47"/>
@@ -5193,7 +5193,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="47"/>
       <c r="B89" s="1"/>
       <c r="C89" s="47"/>
@@ -5206,7 +5206,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="47"/>
       <c r="B90" s="1"/>
       <c r="C90" s="47"/>
@@ -5219,7 +5219,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="47"/>
       <c r="B91" s="1"/>
       <c r="C91" s="47"/>
@@ -5232,7 +5232,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="47"/>
       <c r="B92" s="1"/>
       <c r="C92" s="47"/>
@@ -5245,7 +5245,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="47"/>
       <c r="B93" s="1"/>
       <c r="C93" s="47"/>
@@ -5258,7 +5258,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="47"/>
       <c r="B94" s="1"/>
       <c r="C94" s="47"/>
@@ -5271,7 +5271,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="47"/>
       <c r="B95" s="1"/>
       <c r="C95" s="47"/>
@@ -5284,7 +5284,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="47"/>
       <c r="B96" s="1"/>
       <c r="C96" s="47"/>
@@ -5297,7 +5297,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="47"/>
       <c r="B97" s="1"/>
       <c r="C97" s="47"/>
@@ -5310,7 +5310,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="47"/>
       <c r="B98" s="1"/>
       <c r="C98" s="47"/>
@@ -5323,7 +5323,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="47"/>
       <c r="B99" s="1"/>
       <c r="C99" s="47"/>
@@ -5336,7 +5336,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="47"/>
       <c r="B100" s="1"/>
       <c r="C100" s="47"/>
@@ -5349,7 +5349,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="47"/>
       <c r="B101" s="1"/>
       <c r="C101" s="47"/>
@@ -5362,7 +5362,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="47"/>
       <c r="B102" s="1"/>
       <c r="C102" s="47"/>
@@ -5375,7 +5375,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="47"/>
       <c r="B103" s="1"/>
       <c r="C103" s="47"/>
@@ -5388,7 +5388,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="47"/>
       <c r="B104" s="1"/>
       <c r="C104" s="47"/>
@@ -5401,7 +5401,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="47"/>
       <c r="B105" s="1"/>
       <c r="C105" s="47"/>
@@ -5414,7 +5414,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="47"/>
       <c r="B106" s="1"/>
       <c r="C106" s="47"/>
@@ -5427,7 +5427,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="47"/>
       <c r="B107" s="1"/>
       <c r="C107" s="47"/>
@@ -5440,7 +5440,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="47"/>
       <c r="B108" s="1"/>
       <c r="C108" s="47"/>
@@ -5453,7 +5453,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="47"/>
       <c r="B109" s="1"/>
       <c r="C109" s="47"/>
@@ -5466,7 +5466,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="47"/>
       <c r="B110" s="1"/>
       <c r="C110" s="47"/>
@@ -5479,7 +5479,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="47"/>
       <c r="B111" s="1"/>
       <c r="C111" s="47"/>
@@ -5492,7 +5492,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="47"/>
       <c r="B112" s="1"/>
       <c r="C112" s="47"/>
@@ -5505,7 +5505,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="47"/>
       <c r="B113" s="1"/>
       <c r="C113" s="47"/>
@@ -5518,7 +5518,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="47"/>
       <c r="B114" s="1"/>
       <c r="C114" s="47"/>
@@ -5531,7 +5531,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="47"/>
       <c r="B115" s="1"/>
       <c r="C115" s="47"/>
@@ -5544,7 +5544,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="47"/>
       <c r="B116" s="1"/>
       <c r="C116" s="47"/>
@@ -5557,7 +5557,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="47"/>
       <c r="B117" s="1"/>
       <c r="C117" s="47"/>
@@ -5570,7 +5570,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="47"/>
       <c r="B118" s="1"/>
       <c r="C118" s="47"/>
@@ -5583,7 +5583,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="47"/>
       <c r="B119" s="1"/>
       <c r="C119" s="47"/>
@@ -5596,7 +5596,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="47"/>
       <c r="B120" s="1"/>
       <c r="C120" s="47"/>
@@ -5609,7 +5609,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="47"/>
       <c r="B121" s="1"/>
       <c r="C121" s="47"/>
@@ -5622,7 +5622,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="47"/>
       <c r="B122" s="1"/>
       <c r="C122" s="47"/>
@@ -5635,7 +5635,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="47"/>
       <c r="B123" s="1"/>
       <c r="C123" s="47"/>
@@ -5648,7 +5648,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="47"/>
       <c r="B124" s="1"/>
       <c r="C124" s="47"/>
@@ -5661,7 +5661,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="47"/>
       <c r="B125" s="1"/>
       <c r="C125" s="47"/>
@@ -5674,7 +5674,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="47"/>
       <c r="B126" s="1"/>
       <c r="C126" s="47"/>
@@ -5687,7 +5687,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="47"/>
       <c r="B127" s="1"/>
       <c r="C127" s="47"/>
@@ -5700,7 +5700,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="47"/>
       <c r="B128" s="1"/>
       <c r="C128" s="47"/>
@@ -5713,7 +5713,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="47"/>
       <c r="B129" s="1"/>
       <c r="C129" s="47"/>
@@ -5726,7 +5726,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="47"/>
       <c r="B130" s="1"/>
       <c r="C130" s="47"/>
@@ -5739,7 +5739,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="47"/>
       <c r="B131" s="1"/>
       <c r="C131" s="47"/>
@@ -5752,7 +5752,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="47"/>
       <c r="B132" s="1"/>
       <c r="C132" s="47"/>
@@ -5765,7 +5765,7 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="47"/>
       <c r="B133" s="1"/>
       <c r="C133" s="47"/>
@@ -5778,7 +5778,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="47"/>
       <c r="B134" s="1"/>
       <c r="C134" s="47"/>
@@ -5791,7 +5791,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="47"/>
       <c r="B135" s="1"/>
       <c r="C135" s="47"/>
@@ -5804,7 +5804,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="46"/>
       <c r="C136" s="46"/>
       <c r="D136" s="51"/>
@@ -5813,7 +5813,7 @@
       <c r="G136" s="46"/>
       <c r="H136" s="49"/>
     </row>
-    <row r="137" spans="1:11" s="2" customFormat="1" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="46"/>
       <c r="C137" s="46"/>
       <c r="D137" s="51"/>
@@ -5822,7 +5822,7 @@
       <c r="G137" s="46"/>
       <c r="H137" s="55"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="47"/>
       <c r="B138" s="1"/>
       <c r="C138" s="47"/>
@@ -5835,7 +5835,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="46"/>
       <c r="B139" s="1"/>
       <c r="C139" s="47"/>
@@ -5848,7 +5848,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="47"/>
       <c r="B140" s="1"/>
       <c r="C140" s="47"/>
@@ -5861,7 +5861,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="47"/>
       <c r="B141" s="1"/>
       <c r="C141" s="47"/>
@@ -5874,7 +5874,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="47"/>
       <c r="B142" s="1"/>
       <c r="C142" s="47"/>
@@ -5887,7 +5887,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="47"/>
       <c r="B143" s="1"/>
       <c r="C143" s="47"/>
@@ -5900,7 +5900,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="47"/>
       <c r="B144" s="1"/>
       <c r="C144" s="47"/>
@@ -5913,7 +5913,7 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="47"/>
       <c r="B145" s="1"/>
       <c r="C145" s="47"/>
@@ -5926,7 +5926,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="47"/>
       <c r="B146" s="1"/>
       <c r="C146" s="47"/>
@@ -5939,7 +5939,7 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="47"/>
       <c r="B147" s="1"/>
       <c r="C147" s="47"/>
@@ -5952,7 +5952,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="47"/>
       <c r="B148" s="1"/>
       <c r="C148" s="47"/>
@@ -5965,7 +5965,7 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="47"/>
       <c r="B149" s="1"/>
       <c r="C149" s="47"/>
@@ -5978,7 +5978,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="47"/>
       <c r="B150" s="1"/>
       <c r="C150" s="47"/>
@@ -5991,7 +5991,7 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="47"/>
       <c r="B151" s="1"/>
       <c r="C151" s="47"/>
@@ -6004,7 +6004,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="47"/>
       <c r="B152" s="1"/>
       <c r="C152" s="47"/>
@@ -6017,7 +6017,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="47"/>
       <c r="B153" s="1"/>
       <c r="C153" s="47"/>
@@ -6030,7 +6030,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="47"/>
       <c r="B154" s="1"/>
       <c r="C154" s="47"/>
@@ -6043,7 +6043,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="47"/>
       <c r="B155" s="1"/>
       <c r="C155" s="47"/>
@@ -6056,7 +6056,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="47"/>
       <c r="B156" s="1"/>
       <c r="C156" s="47"/>
@@ -6069,7 +6069,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="47"/>
       <c r="B157" s="1"/>
       <c r="C157" s="47"/>
@@ -6082,7 +6082,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="47"/>
       <c r="B158" s="1"/>
       <c r="C158" s="47"/>
@@ -6095,7 +6095,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="47"/>
       <c r="B159" s="1"/>
       <c r="C159" s="47"/>
@@ -6108,7 +6108,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="47"/>
       <c r="B160" s="1"/>
       <c r="C160" s="47"/>
@@ -6121,7 +6121,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="47"/>
       <c r="B161" s="1"/>
       <c r="C161" s="47"/>
@@ -6134,7 +6134,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="47"/>
       <c r="B162" s="1"/>
       <c r="C162" s="47"/>
@@ -6147,7 +6147,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="46"/>
       <c r="B163" s="1"/>
       <c r="C163" s="47"/>
@@ -6160,7 +6160,7 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="47"/>
       <c r="B164" s="1"/>
       <c r="C164" s="47"/>
@@ -6173,7 +6173,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="47"/>
       <c r="B165" s="1"/>
       <c r="C165" s="47"/>
@@ -6186,7 +6186,7 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="47"/>
       <c r="B166" s="1"/>
       <c r="C166" s="47"/>
@@ -6199,7 +6199,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="47"/>
       <c r="B167" s="1"/>
       <c r="C167" s="47"/>
@@ -6212,7 +6212,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="47"/>
       <c r="B168" s="1"/>
       <c r="C168" s="47"/>
@@ -6225,7 +6225,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="47"/>
       <c r="B169" s="1"/>
       <c r="C169" s="47"/>
@@ -6238,7 +6238,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="47"/>
       <c r="B170" s="1"/>
       <c r="C170" s="47"/>
@@ -6251,7 +6251,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="47"/>
       <c r="B171" s="1"/>
       <c r="C171" s="47"/>
@@ -6264,7 +6264,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="47"/>
       <c r="B172" s="1"/>
       <c r="C172" s="47"/>
@@ -6277,7 +6277,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="47"/>
       <c r="B173" s="1"/>
       <c r="C173" s="47"/>
@@ -6290,7 +6290,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="47"/>
       <c r="B174" s="1"/>
       <c r="C174" s="47"/>
@@ -6303,7 +6303,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="47"/>
       <c r="B175" s="1"/>
       <c r="C175" s="47"/>
@@ -6316,7 +6316,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="47"/>
       <c r="B176" s="1"/>
       <c r="C176" s="47"/>
@@ -6329,7 +6329,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="47"/>
       <c r="B177" s="1"/>
       <c r="C177" s="47"/>
@@ -6342,7 +6342,7 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="47"/>
       <c r="B178" s="1"/>
       <c r="C178" s="47"/>
@@ -6355,7 +6355,7 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="47"/>
       <c r="B179" s="1"/>
       <c r="C179" s="47"/>
@@ -6368,7 +6368,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="47"/>
       <c r="B180" s="1"/>
       <c r="C180" s="47"/>
@@ -6381,7 +6381,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="47"/>
       <c r="B181" s="1"/>
       <c r="C181" s="47"/>
@@ -6394,7 +6394,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="47"/>
       <c r="B182" s="1"/>
       <c r="C182" s="47"/>
@@ -6407,7 +6407,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="47"/>
       <c r="B183" s="1"/>
       <c r="C183" s="47"/>
@@ -6420,7 +6420,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="47"/>
       <c r="B184" s="1"/>
       <c r="C184" s="47"/>
@@ -6433,7 +6433,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="47"/>
       <c r="B185" s="1"/>
       <c r="C185" s="47"/>
@@ -6446,7 +6446,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="47"/>
       <c r="B186" s="1"/>
       <c r="C186" s="47"/>
@@ -6459,7 +6459,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="47"/>
       <c r="B187" s="1"/>
       <c r="C187" s="47"/>
@@ -6472,7 +6472,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="47"/>
       <c r="B188" s="1"/>
       <c r="C188" s="47"/>
@@ -6485,7 +6485,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="47"/>
       <c r="B189" s="1"/>
       <c r="C189" s="47"/>
@@ -6498,7 +6498,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="47"/>
       <c r="B190" s="1"/>
       <c r="C190" s="47"/>
@@ -6511,7 +6511,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="47"/>
       <c r="B191" s="1"/>
       <c r="C191" s="47"/>
@@ -6524,7 +6524,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="47"/>
       <c r="B192" s="1"/>
       <c r="C192" s="47"/>
@@ -6537,7 +6537,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="47"/>
       <c r="B193" s="1"/>
       <c r="C193" s="47"/>
@@ -6550,7 +6550,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="47"/>
       <c r="B194" s="1"/>
       <c r="C194" s="47"/>
@@ -6563,7 +6563,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="47"/>
       <c r="B195" s="1"/>
       <c r="C195" s="47"/>
@@ -6576,7 +6576,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="47"/>
       <c r="B196" s="1"/>
       <c r="C196" s="47"/>
@@ -6589,7 +6589,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="47"/>
       <c r="B197" s="1"/>
       <c r="C197" s="47"/>
@@ -6602,7 +6602,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="47"/>
       <c r="B198" s="1"/>
       <c r="C198" s="47"/>
@@ -6615,7 +6615,7 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="47"/>
       <c r="B199" s="1"/>
       <c r="C199" s="47"/>
@@ -6628,7 +6628,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="47"/>
       <c r="B200" s="1"/>
       <c r="C200" s="47"/>
@@ -6641,7 +6641,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="47"/>
       <c r="B201" s="1"/>
       <c r="C201" s="47"/>
@@ -6654,7 +6654,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="47"/>
       <c r="B202" s="1"/>
       <c r="C202" s="47"/>
@@ -6667,7 +6667,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="47"/>
       <c r="B203" s="1"/>
       <c r="C203" s="47"/>
@@ -6680,7 +6680,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="47"/>
       <c r="B204" s="1"/>
       <c r="C204" s="47"/>
@@ -6693,7 +6693,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="47"/>
       <c r="B205" s="1"/>
       <c r="C205" s="47"/>
@@ -6706,7 +6706,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="47"/>
       <c r="B206" s="1"/>
       <c r="C206" s="47"/>
@@ -6719,7 +6719,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="47"/>
       <c r="B207" s="1"/>
       <c r="C207" s="47"/>
@@ -6732,7 +6732,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="47"/>
       <c r="B208" s="1"/>
       <c r="C208" s="47"/>
@@ -6745,7 +6745,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="47"/>
       <c r="B209" s="1"/>
       <c r="C209" s="47"/>
@@ -6758,7 +6758,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="47"/>
       <c r="B210" s="1"/>
       <c r="C210" s="47"/>
@@ -6771,7 +6771,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="47"/>
       <c r="B211" s="1"/>
       <c r="C211" s="47"/>
@@ -6784,7 +6784,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="47"/>
       <c r="B212" s="1"/>
       <c r="C212" s="47"/>
@@ -6797,7 +6797,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="47"/>
       <c r="B213" s="1"/>
       <c r="C213" s="47"/>
@@ -6810,7 +6810,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="47"/>
       <c r="B214" s="1"/>
       <c r="C214" s="47"/>
@@ -6823,7 +6823,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="47"/>
       <c r="B215" s="1"/>
       <c r="C215" s="47"/>
@@ -6836,7 +6836,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="47"/>
       <c r="B216" s="1"/>
       <c r="C216" s="47"/>
@@ -6849,7 +6849,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="47"/>
       <c r="B217" s="1"/>
       <c r="C217" s="47"/>
@@ -6862,7 +6862,7 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="47"/>
       <c r="B218" s="1"/>
       <c r="C218" s="47"/>
@@ -6875,7 +6875,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="47"/>
       <c r="B219" s="1"/>
       <c r="C219" s="47"/>
@@ -6888,7 +6888,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="47"/>
       <c r="B220" s="1"/>
       <c r="C220" s="47"/>
@@ -6901,7 +6901,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="47"/>
       <c r="B221" s="1"/>
       <c r="C221" s="47"/>
@@ -6914,7 +6914,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="47"/>
       <c r="B222" s="1"/>
       <c r="C222" s="47"/>
@@ -6927,7 +6927,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="47"/>
       <c r="B223" s="1"/>
       <c r="C223" s="47"/>
@@ -6940,7 +6940,7 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="47"/>
       <c r="B224" s="1"/>
       <c r="C224" s="47"/>
@@ -6953,7 +6953,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="47"/>
       <c r="B225" s="1"/>
       <c r="C225" s="47"/>
@@ -6966,7 +6966,7 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="47"/>
       <c r="B226" s="1"/>
       <c r="C226" s="47"/>
@@ -6979,7 +6979,7 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="47"/>
       <c r="B227" s="1"/>
       <c r="C227" s="47"/>
@@ -6992,7 +6992,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="47"/>
       <c r="B228" s="1"/>
       <c r="C228" s="47"/>
@@ -7005,7 +7005,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="47"/>
       <c r="B229" s="1"/>
       <c r="C229" s="47"/>
@@ -7018,7 +7018,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="47"/>
       <c r="B230" s="1"/>
       <c r="C230" s="47"/>
@@ -7031,7 +7031,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="47"/>
       <c r="B231" s="1"/>
       <c r="C231" s="47"/>
@@ -7044,7 +7044,7 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="47"/>
       <c r="B232" s="1"/>
       <c r="C232" s="47"/>
@@ -7057,7 +7057,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="47"/>
       <c r="B233" s="1"/>
       <c r="C233" s="47"/>
@@ -7070,7 +7070,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="47"/>
       <c r="B234" s="1"/>
       <c r="C234" s="47"/>
@@ -7083,7 +7083,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="47"/>
       <c r="B235" s="1"/>
       <c r="C235" s="47"/>
@@ -7096,7 +7096,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="47"/>
       <c r="B236" s="1"/>
       <c r="C236" s="47"/>
@@ -7109,7 +7109,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="47"/>
       <c r="B237" s="1"/>
       <c r="C237" s="47"/>
@@ -7122,7 +7122,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="47"/>
       <c r="B238" s="1"/>
       <c r="C238" s="47"/>
@@ -7135,7 +7135,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="47"/>
       <c r="B239" s="1"/>
       <c r="C239" s="47"/>
@@ -7148,7 +7148,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="47"/>
       <c r="B240" s="1"/>
       <c r="C240" s="47"/>
@@ -7161,7 +7161,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="47"/>
       <c r="B241" s="1"/>
       <c r="C241" s="47"/>
@@ -7174,7 +7174,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="47"/>
       <c r="B242" s="1"/>
       <c r="C242" s="47"/>
@@ -7187,7 +7187,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="47"/>
       <c r="B243" s="1"/>
       <c r="C243" s="47"/>
@@ -7200,7 +7200,7 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="47"/>
       <c r="B244" s="1"/>
       <c r="C244" s="47"/>
@@ -7213,7 +7213,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="47"/>
       <c r="B245" s="1"/>
       <c r="C245" s="47"/>
@@ -7226,7 +7226,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="47"/>
       <c r="B246" s="1"/>
       <c r="C246" s="47"/>
@@ -7239,7 +7239,7 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="47"/>
       <c r="B247" s="1"/>
       <c r="C247" s="47"/>
@@ -7252,7 +7252,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="47"/>
       <c r="B248" s="1"/>
       <c r="C248" s="47"/>
@@ -7265,7 +7265,7 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="47"/>
       <c r="B249" s="1"/>
       <c r="C249" s="47"/>
@@ -7278,7 +7278,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="47"/>
       <c r="B250" s="1"/>
       <c r="C250" s="47"/>
@@ -7291,7 +7291,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="47"/>
       <c r="B251" s="1"/>
       <c r="C251" s="47"/>
@@ -7304,7 +7304,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="47"/>
       <c r="B252" s="1"/>
       <c r="C252" s="47"/>
@@ -7317,7 +7317,7 @@
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="47"/>
       <c r="B253" s="1"/>
       <c r="C253" s="47"/>
@@ -7330,7 +7330,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="47"/>
       <c r="B254" s="1"/>
       <c r="C254" s="47"/>
@@ -7343,7 +7343,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="47"/>
       <c r="B255" s="1"/>
       <c r="C255" s="47"/>
@@ -7356,7 +7356,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="47"/>
       <c r="B256" s="1"/>
       <c r="C256" s="47"/>
@@ -7369,7 +7369,7 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="47"/>
       <c r="B257" s="1"/>
       <c r="C257" s="47"/>
@@ -7382,7 +7382,7 @@
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="47"/>
       <c r="B258" s="1"/>
       <c r="C258" s="47"/>
@@ -7395,7 +7395,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="47"/>
       <c r="B259" s="1"/>
       <c r="C259" s="47"/>
@@ -7408,7 +7408,7 @@
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="47"/>
       <c r="B260" s="1"/>
       <c r="C260" s="47"/>
@@ -7421,7 +7421,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="47"/>
       <c r="B261" s="1"/>
       <c r="C261" s="47"/>
@@ -7434,7 +7434,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="47"/>
       <c r="B262" s="1"/>
       <c r="C262" s="47"/>
@@ -7447,7 +7447,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="47"/>
       <c r="B263" s="1"/>
       <c r="C263" s="47"/>
@@ -7460,7 +7460,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="47"/>
       <c r="B264" s="1"/>
       <c r="C264" s="47"/>
@@ -7473,7 +7473,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="47"/>
       <c r="B265" s="1"/>
       <c r="C265" s="47"/>
@@ -7486,7 +7486,7 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="47"/>
       <c r="B266" s="1"/>
       <c r="C266" s="47"/>
@@ -7499,7 +7499,7 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="47"/>
       <c r="B267" s="1"/>
       <c r="C267" s="47"/>
@@ -7512,7 +7512,7 @@
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="47"/>
       <c r="B268" s="1"/>
       <c r="C268" s="47"/>
@@ -7525,7 +7525,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="47"/>
       <c r="B269" s="1"/>
       <c r="C269" s="47"/>
@@ -7538,7 +7538,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="47"/>
       <c r="B270" s="1"/>
       <c r="C270" s="47"/>
@@ -7551,7 +7551,7 @@
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="47"/>
       <c r="B271" s="1"/>
       <c r="C271" s="47"/>
@@ -7564,7 +7564,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="47"/>
       <c r="B272" s="1"/>
       <c r="C272" s="47"/>
@@ -7577,7 +7577,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="47"/>
       <c r="B273" s="1"/>
       <c r="C273" s="47"/>
@@ -7590,7 +7590,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="47"/>
       <c r="B274" s="1"/>
       <c r="C274" s="47"/>
@@ -7603,7 +7603,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="47"/>
       <c r="B275" s="1"/>
       <c r="C275" s="47"/>
@@ -7616,7 +7616,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="47"/>
       <c r="B276" s="1"/>
       <c r="C276" s="47"/>
@@ -7629,7 +7629,7 @@
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="47"/>
       <c r="B277" s="1"/>
       <c r="C277" s="47"/>
@@ -7642,7 +7642,7 @@
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="47"/>
       <c r="B278" s="1"/>
       <c r="C278" s="47"/>
@@ -7655,7 +7655,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="47"/>
       <c r="B279" s="1"/>
       <c r="C279" s="47"/>
@@ -7668,7 +7668,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="47"/>
       <c r="B280" s="1"/>
       <c r="C280" s="47"/>
@@ -7681,7 +7681,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="47"/>
       <c r="B281" s="1"/>
       <c r="C281" s="47"/>
@@ -7694,7 +7694,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="47"/>
       <c r="B282" s="1"/>
       <c r="C282" s="47"/>
@@ -7707,7 +7707,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="46"/>
       <c r="B283" s="1"/>
       <c r="C283" s="47"/>
@@ -7720,7 +7720,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="47"/>
       <c r="B284" s="1"/>
       <c r="C284" s="47"/>
@@ -7733,7 +7733,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="47"/>
       <c r="B285" s="1"/>
       <c r="C285" s="47"/>
@@ -7746,7 +7746,7 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="47"/>
       <c r="B286" s="1"/>
       <c r="C286" s="47"/>
@@ -7759,7 +7759,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="46"/>
       <c r="B287" s="1"/>
       <c r="C287" s="47"/>
@@ -7772,7 +7772,7 @@
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="47"/>
       <c r="B288" s="1"/>
       <c r="C288" s="47"/>
@@ -7785,7 +7785,7 @@
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="47"/>
       <c r="B289" s="1"/>
       <c r="C289" s="47"/>
@@ -7798,7 +7798,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="47"/>
       <c r="B290" s="1"/>
       <c r="C290" s="47"/>
@@ -7811,7 +7811,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="47"/>
       <c r="B291" s="1"/>
       <c r="C291" s="47"/>
@@ -7824,7 +7824,7 @@
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="47"/>
       <c r="B292" s="1"/>
       <c r="C292" s="47"/>
@@ -7837,7 +7837,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="47"/>
       <c r="B293" s="1"/>
       <c r="C293" s="47"/>
@@ -7850,7 +7850,7 @@
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="47"/>
       <c r="B294" s="1"/>
       <c r="C294" s="47"/>
@@ -7863,7 +7863,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="47"/>
       <c r="B295" s="1"/>
       <c r="C295" s="47"/>
@@ -7876,7 +7876,7 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="47"/>
       <c r="B296" s="1"/>
       <c r="C296" s="47"/>
@@ -7889,7 +7889,7 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="47"/>
       <c r="B297" s="1"/>
       <c r="C297" s="47"/>
@@ -7902,7 +7902,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="47"/>
       <c r="B298" s="1"/>
       <c r="C298" s="47"/>
@@ -7915,7 +7915,7 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="47"/>
       <c r="B299" s="1"/>
       <c r="C299" s="47"/>
@@ -7928,7 +7928,7 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="47"/>
       <c r="B300" s="1"/>
       <c r="C300" s="47"/>
@@ -7941,7 +7941,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="47"/>
       <c r="B301" s="1"/>
       <c r="C301" s="47"/>
@@ -7954,7 +7954,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="47"/>
       <c r="B302" s="1"/>
       <c r="C302" s="47"/>
@@ -7967,7 +7967,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="47"/>
       <c r="B303" s="1"/>
       <c r="C303" s="47"/>
@@ -7980,7 +7980,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="47"/>
       <c r="B304" s="1"/>
       <c r="C304" s="47"/>
@@ -7993,7 +7993,7 @@
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="47"/>
       <c r="B305" s="1"/>
       <c r="C305" s="47"/>
@@ -8006,7 +8006,7 @@
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="47"/>
       <c r="B306" s="1"/>
       <c r="C306" s="47"/>
@@ -8019,7 +8019,7 @@
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="47"/>
       <c r="B307" s="1"/>
       <c r="C307" s="47"/>
@@ -8032,7 +8032,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="47"/>
       <c r="B308" s="1"/>
       <c r="C308" s="47"/>
@@ -8045,7 +8045,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="47"/>
       <c r="B309" s="1"/>
       <c r="C309" s="47"/>
@@ -8058,7 +8058,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="47"/>
       <c r="B310" s="1"/>
       <c r="C310" s="47"/>
@@ -8071,7 +8071,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="47"/>
       <c r="B311" s="2"/>
       <c r="C311" s="47"/>
@@ -8085,7 +8085,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="58"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="47"/>
       <c r="B312" s="1"/>
       <c r="C312" s="47"/>
@@ -8098,7 +8098,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="47"/>
       <c r="B313" s="1"/>
       <c r="C313" s="47"/>
@@ -8111,7 +8111,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="47"/>
       <c r="B314" s="1"/>
       <c r="C314" s="47"/>
@@ -8124,7 +8124,7 @@
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="47"/>
       <c r="B315" s="1"/>
       <c r="C315" s="47"/>
@@ -8137,7 +8137,7 @@
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="47"/>
       <c r="B316" s="1"/>
       <c r="C316" s="47"/>
@@ -8150,7 +8150,7 @@
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="47"/>
       <c r="B317" s="1"/>
       <c r="C317" s="47"/>
@@ -8163,7 +8163,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="47"/>
       <c r="B318" s="1"/>
       <c r="C318" s="47"/>
@@ -8176,7 +8176,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="47"/>
       <c r="B319" s="1"/>
       <c r="C319" s="47"/>
@@ -8189,7 +8189,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="47"/>
       <c r="B320" s="1"/>
       <c r="C320" s="47"/>
@@ -8202,7 +8202,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="47"/>
       <c r="B321" s="1"/>
       <c r="C321" s="47"/>
@@ -8215,7 +8215,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="47"/>
       <c r="B322" s="1"/>
       <c r="C322" s="47"/>
@@ -8228,7 +8228,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="47"/>
       <c r="B323" s="1"/>
       <c r="C323" s="47"/>
@@ -8241,7 +8241,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="47"/>
       <c r="B324" s="1"/>
       <c r="C324" s="47"/>
@@ -8254,7 +8254,7 @@
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="47"/>
       <c r="B325" s="1"/>
       <c r="C325" s="47"/>
@@ -8267,7 +8267,7 @@
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="47"/>
       <c r="B326" s="1"/>
       <c r="C326" s="47"/>
@@ -8280,7 +8280,7 @@
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="47"/>
       <c r="B327" s="1"/>
       <c r="C327" s="47"/>
@@ -8293,7 +8293,7 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="47"/>
       <c r="B328" s="1"/>
       <c r="C328" s="47"/>
@@ -8306,7 +8306,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="47"/>
       <c r="B329" s="1"/>
       <c r="C329" s="47"/>
@@ -8319,7 +8319,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="47"/>
       <c r="B330" s="1"/>
       <c r="C330" s="47"/>
@@ -8332,7 +8332,7 @@
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="47"/>
       <c r="B331" s="1"/>
       <c r="C331" s="47"/>
@@ -8345,7 +8345,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="47"/>
       <c r="B332" s="1"/>
       <c r="C332" s="47"/>
@@ -8358,7 +8358,7 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="47"/>
       <c r="B333" s="1"/>
       <c r="C333" s="47"/>
@@ -8371,7 +8371,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="47"/>
       <c r="B334" s="1"/>
       <c r="C334" s="47"/>
@@ -8384,7 +8384,7 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="47"/>
       <c r="B335" s="1"/>
       <c r="C335" s="47"/>
@@ -8397,7 +8397,7 @@
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="47"/>
       <c r="B336" s="1"/>
       <c r="C336" s="47"/>
@@ -8410,7 +8410,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="47"/>
       <c r="B337" s="1"/>
       <c r="C337" s="47"/>
@@ -8423,7 +8423,7 @@
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="47"/>
       <c r="B338" s="1"/>
       <c r="C338" s="47"/>
@@ -8436,7 +8436,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="47"/>
       <c r="B339" s="1"/>
       <c r="C339" s="47"/>
@@ -8449,7 +8449,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="47"/>
       <c r="B340" s="1"/>
       <c r="C340" s="47"/>
@@ -8462,7 +8462,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="47"/>
       <c r="B341" s="1"/>
       <c r="C341" s="47"/>
@@ -8475,7 +8475,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="47"/>
       <c r="B342" s="1"/>
       <c r="C342" s="47"/>
@@ -8488,7 +8488,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="47"/>
       <c r="B343" s="1"/>
       <c r="C343" s="47"/>
@@ -8501,7 +8501,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="47"/>
       <c r="B344" s="1"/>
       <c r="C344" s="47"/>
@@ -8514,7 +8514,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="47"/>
       <c r="B345" s="1"/>
       <c r="C345" s="47"/>
@@ -8527,7 +8527,7 @@
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="47"/>
       <c r="B346" s="1"/>
       <c r="C346" s="47"/>
@@ -8540,7 +8540,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="47"/>
       <c r="B347" s="1"/>
       <c r="C347" s="47"/>
@@ -8553,7 +8553,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="47"/>
       <c r="B348" s="1"/>
       <c r="C348" s="47"/>
@@ -8566,7 +8566,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="47"/>
       <c r="B349" s="1"/>
       <c r="C349" s="47"/>
@@ -8579,7 +8579,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="47"/>
       <c r="B350" s="1"/>
       <c r="C350" s="47"/>
@@ -8592,7 +8592,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="47"/>
       <c r="B351" s="1"/>
       <c r="C351" s="47"/>
@@ -8605,7 +8605,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="47"/>
       <c r="B352" s="1"/>
       <c r="C352" s="47"/>
@@ -8618,7 +8618,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="47"/>
       <c r="B353" s="1"/>
       <c r="C353" s="47"/>
@@ -8631,7 +8631,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="47"/>
       <c r="B354" s="1"/>
       <c r="C354" s="47"/>
@@ -8644,7 +8644,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="47"/>
       <c r="B355" s="1"/>
       <c r="C355" s="47"/>
@@ -8657,7 +8657,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="47"/>
       <c r="B356" s="1"/>
       <c r="C356" s="47"/>
@@ -8670,7 +8670,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="47"/>
       <c r="B357" s="1"/>
       <c r="C357" s="47"/>
@@ -8683,7 +8683,7 @@
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="47"/>
       <c r="B358" s="1"/>
       <c r="C358" s="47"/>
@@ -8696,7 +8696,7 @@
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="47"/>
       <c r="B359" s="1"/>
       <c r="C359" s="47"/>
@@ -8709,7 +8709,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="47"/>
       <c r="B360" s="1"/>
       <c r="C360" s="47"/>
@@ -8722,7 +8722,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="47"/>
       <c r="B361" s="1"/>
       <c r="C361" s="47"/>
@@ -8735,7 +8735,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="47"/>
       <c r="B362" s="1"/>
       <c r="C362" s="47"/>
@@ -8748,7 +8748,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="47"/>
       <c r="B363" s="1"/>
       <c r="C363" s="47"/>
@@ -8761,7 +8761,7 @@
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="47"/>
       <c r="B364" s="1"/>
       <c r="C364" s="47"/>
@@ -8774,7 +8774,7 @@
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="47"/>
       <c r="B365" s="1"/>
       <c r="C365" s="47"/>
@@ -8787,7 +8787,7 @@
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="47"/>
       <c r="B366" s="1"/>
       <c r="C366" s="47"/>
@@ -8800,7 +8800,7 @@
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="47"/>
       <c r="B367" s="1"/>
       <c r="C367" s="47"/>
@@ -8813,7 +8813,7 @@
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="47"/>
       <c r="B368" s="1"/>
       <c r="C368" s="47"/>
@@ -8826,7 +8826,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="47"/>
       <c r="B369" s="1"/>
       <c r="C369" s="47"/>
@@ -8839,7 +8839,7 @@
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="47"/>
       <c r="B370" s="1"/>
       <c r="C370" s="47"/>
@@ -8852,7 +8852,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="47"/>
       <c r="B371" s="1"/>
       <c r="C371" s="47"/>
@@ -8865,7 +8865,7 @@
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="47"/>
       <c r="B372" s="1"/>
       <c r="C372" s="47"/>
@@ -8878,7 +8878,7 @@
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="47"/>
       <c r="B373" s="1"/>
       <c r="C373" s="47"/>
@@ -8891,7 +8891,7 @@
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="47"/>
       <c r="B374" s="1"/>
       <c r="C374" s="47"/>
@@ -8904,7 +8904,7 @@
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="47"/>
       <c r="B375" s="1"/>
       <c r="C375" s="47"/>
@@ -8917,7 +8917,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="47"/>
       <c r="B376" s="1"/>
       <c r="C376" s="47"/>
@@ -8930,7 +8930,7 @@
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="47"/>
       <c r="B377" s="1"/>
       <c r="C377" s="47"/>
@@ -8943,7 +8943,7 @@
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="47"/>
       <c r="B378" s="1"/>
       <c r="C378" s="47"/>
@@ -8956,7 +8956,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="47"/>
       <c r="B379" s="1"/>
       <c r="C379" s="47"/>
@@ -8969,7 +8969,7 @@
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="47"/>
       <c r="B380" s="1"/>
       <c r="C380" s="47"/>
@@ -8982,7 +8982,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="47"/>
       <c r="B381" s="1"/>
       <c r="C381" s="47"/>
@@ -8995,7 +8995,7 @@
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="47"/>
       <c r="B382" s="1"/>
       <c r="C382" s="47"/>
@@ -9008,7 +9008,7 @@
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="47"/>
       <c r="B383" s="1"/>
       <c r="C383" s="47"/>
@@ -9021,7 +9021,7 @@
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="47"/>
       <c r="B384" s="1"/>
       <c r="C384" s="47"/>
@@ -9034,7 +9034,7 @@
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="47"/>
       <c r="B385" s="1"/>
       <c r="C385" s="47"/>
@@ -9047,7 +9047,7 @@
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="47"/>
       <c r="B386" s="1"/>
       <c r="C386" s="47"/>
@@ -9060,7 +9060,7 @@
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="47"/>
       <c r="B387" s="1"/>
       <c r="C387" s="47"/>
@@ -9073,7 +9073,7 @@
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="47"/>
       <c r="B388" s="1"/>
       <c r="C388" s="47"/>
@@ -9086,7 +9086,7 @@
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="46"/>
       <c r="B389" s="1"/>
       <c r="C389" s="47"/>
@@ -9099,7 +9099,7 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="46"/>
       <c r="B390" s="1"/>
       <c r="C390" s="47"/>
@@ -9112,7 +9112,7 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="46"/>
       <c r="B391" s="1"/>
       <c r="C391" s="47"/>
@@ -9125,7 +9125,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="47"/>
       <c r="B392" s="1"/>
       <c r="C392" s="47"/>
@@ -9138,7 +9138,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="47"/>
       <c r="B393" s="1"/>
       <c r="C393" s="47"/>
@@ -9151,7 +9151,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="47"/>
       <c r="B394" s="1"/>
       <c r="C394" s="47"/>
@@ -9164,7 +9164,7 @@
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="47"/>
       <c r="B395" s="1"/>
       <c r="C395" s="47"/>
@@ -9177,7 +9177,7 @@
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="47"/>
       <c r="B396" s="1"/>
       <c r="C396" s="47"/>
@@ -9190,7 +9190,7 @@
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="47"/>
       <c r="B397" s="1"/>
       <c r="C397" s="47"/>
@@ -9203,7 +9203,7 @@
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="47"/>
       <c r="B398" s="1"/>
       <c r="C398" s="47"/>
@@ -9216,7 +9216,7 @@
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="47"/>
       <c r="B399" s="1"/>
       <c r="C399" s="47"/>
@@ -9229,7 +9229,7 @@
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="47"/>
       <c r="B400" s="1"/>
       <c r="C400" s="47"/>
@@ -9242,7 +9242,7 @@
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="47"/>
       <c r="B401" s="1"/>
       <c r="C401" s="47"/>
@@ -9255,7 +9255,7 @@
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="47"/>
       <c r="B402" s="1"/>
       <c r="C402" s="47"/>
@@ -9268,7 +9268,7 @@
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="47"/>
       <c r="B403" s="1"/>
       <c r="C403" s="47"/>
@@ -9281,7 +9281,7 @@
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="47"/>
       <c r="B404" s="1"/>
       <c r="C404" s="47"/>
@@ -9294,7 +9294,7 @@
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="47"/>
       <c r="B405" s="1"/>
       <c r="C405" s="47"/>
@@ -9307,7 +9307,7 @@
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="47"/>
       <c r="B406" s="1"/>
       <c r="C406" s="47"/>
@@ -9320,7 +9320,7 @@
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="47"/>
       <c r="B407" s="1"/>
       <c r="C407" s="47"/>
@@ -9333,7 +9333,7 @@
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="47"/>
       <c r="B408" s="1"/>
       <c r="C408" s="47"/>
@@ -9346,7 +9346,7 @@
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="47"/>
       <c r="B409" s="1"/>
       <c r="C409" s="47"/>
@@ -9359,7 +9359,7 @@
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="47"/>
       <c r="B410" s="1"/>
       <c r="C410" s="47"/>
@@ -9372,7 +9372,7 @@
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="47"/>
       <c r="B411" s="1"/>
       <c r="C411" s="47"/>
@@ -9385,7 +9385,7 @@
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="47"/>
       <c r="B412" s="1"/>
       <c r="C412" s="47"/>
@@ -9398,7 +9398,7 @@
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="47"/>
       <c r="B413" s="1"/>
       <c r="C413" s="47"/>
@@ -9411,7 +9411,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="47"/>
       <c r="B414" s="1"/>
       <c r="C414" s="47"/>
@@ -9424,7 +9424,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="47"/>
       <c r="B415" s="1"/>
       <c r="C415" s="47"/>
@@ -9437,7 +9437,7 @@
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="47"/>
       <c r="B416" s="1"/>
       <c r="C416" s="47"/>
@@ -9450,7 +9450,7 @@
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="47"/>
       <c r="B417" s="1"/>
       <c r="C417" s="47"/>
@@ -9463,7 +9463,7 @@
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="47"/>
       <c r="B418" s="1"/>
       <c r="C418" s="47"/>
@@ -9476,7 +9476,7 @@
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="47"/>
       <c r="B419" s="1"/>
       <c r="C419" s="47"/>
@@ -9489,7 +9489,7 @@
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="47"/>
       <c r="B420" s="1"/>
       <c r="C420" s="47"/>
@@ -9502,7 +9502,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="47"/>
       <c r="B421" s="1"/>
       <c r="C421" s="47"/>
@@ -9515,7 +9515,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="47"/>
       <c r="B422" s="1"/>
       <c r="C422" s="47"/>
@@ -9528,7 +9528,7 @@
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="47"/>
       <c r="B423" s="1"/>
       <c r="C423" s="47"/>
@@ -9541,7 +9541,7 @@
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="47"/>
       <c r="B424" s="1"/>
       <c r="C424" s="47"/>
@@ -9554,7 +9554,7 @@
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="47"/>
       <c r="B425" s="1"/>
       <c r="C425" s="47"/>
@@ -9567,7 +9567,7 @@
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="47"/>
       <c r="B426" s="1"/>
       <c r="C426" s="47"/>
@@ -9580,7 +9580,7 @@
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="47"/>
       <c r="B427" s="1"/>
       <c r="C427" s="47"/>
@@ -9593,7 +9593,7 @@
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="47"/>
       <c r="B428" s="1"/>
       <c r="C428" s="47"/>
@@ -9606,7 +9606,7 @@
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="47"/>
       <c r="B429" s="1"/>
       <c r="C429" s="47"/>
@@ -9619,7 +9619,7 @@
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="47"/>
       <c r="B430" s="1"/>
       <c r="C430" s="47"/>
@@ -9632,7 +9632,7 @@
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="47"/>
       <c r="B431" s="1"/>
       <c r="C431" s="47"/>
@@ -9645,7 +9645,7 @@
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="47"/>
       <c r="B432" s="1"/>
       <c r="C432" s="47"/>
@@ -9658,7 +9658,7 @@
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="47"/>
       <c r="B433" s="1"/>
       <c r="C433" s="47"/>
@@ -9671,7 +9671,7 @@
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="47"/>
       <c r="B434" s="1"/>
       <c r="C434" s="47"/>
@@ -9684,7 +9684,7 @@
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="47"/>
       <c r="B435" s="1"/>
       <c r="C435" s="47"/>
@@ -9697,7 +9697,7 @@
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="47"/>
       <c r="B436" s="1"/>
       <c r="C436" s="47"/>
@@ -9710,7 +9710,7 @@
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="47"/>
       <c r="B437" s="1"/>
       <c r="C437" s="47"/>
@@ -9723,7 +9723,7 @@
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="47"/>
       <c r="B438" s="1"/>
       <c r="C438" s="47"/>
@@ -9736,7 +9736,7 @@
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="47"/>
       <c r="B439" s="1"/>
       <c r="C439" s="47"/>
@@ -9749,7 +9749,7 @@
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="47"/>
       <c r="B440" s="1"/>
       <c r="C440" s="47"/>
@@ -9762,7 +9762,7 @@
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="47"/>
       <c r="B441" s="1"/>
       <c r="C441" s="47"/>
@@ -9775,7 +9775,7 @@
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="47"/>
       <c r="B442" s="1"/>
       <c r="C442" s="47"/>
@@ -9788,7 +9788,7 @@
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="47"/>
       <c r="B443" s="1"/>
       <c r="C443" s="47"/>
@@ -9801,7 +9801,7 @@
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="47"/>
       <c r="B444" s="1"/>
       <c r="C444" s="47"/>
@@ -9814,7 +9814,7 @@
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="47"/>
       <c r="B445" s="1"/>
       <c r="C445" s="47"/>
@@ -9827,7 +9827,7 @@
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="47"/>
       <c r="B446" s="1"/>
       <c r="C446" s="47"/>
@@ -9840,7 +9840,7 @@
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="47"/>
       <c r="B447" s="1"/>
       <c r="C447" s="47"/>
@@ -9853,7 +9853,7 @@
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="47"/>
       <c r="B448" s="1"/>
       <c r="C448" s="47"/>
@@ -9866,7 +9866,7 @@
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="47"/>
       <c r="B449" s="1"/>
       <c r="C449" s="47"/>
@@ -9879,7 +9879,7 @@
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="47"/>
       <c r="B450" s="1"/>
       <c r="C450" s="47"/>
@@ -9892,7 +9892,7 @@
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="47"/>
       <c r="B451" s="1"/>
       <c r="C451" s="47"/>
@@ -9905,7 +9905,7 @@
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="47"/>
       <c r="B452" s="1"/>
       <c r="C452" s="47"/>
@@ -9918,7 +9918,7 @@
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -9931,7 +9931,7 @@
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="43"/>
       <c r="B454" s="43"/>
       <c r="C454" s="43"/>
@@ -9962,23 +9962,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8391001B-432E-46B3-9E5E-3023D94C5F8D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="63" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" style="63" customWidth="1"/>
-    <col min="3" max="3" width="24.69140625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="45.15234375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="44.69140625" style="63" customWidth="1"/>
-    <col min="6" max="16384" width="9.15234375" style="63"/>
+    <col min="2" max="2" width="12.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="63" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>81</v>
       </c>
@@ -9995,14 +9995,14 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="68">
         <v>45565</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="67">
         <v>27</v>
       </c>
       <c r="D2" s="65" t="s">
@@ -10012,56 +10012,66 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="68">
+        <v>45637</v>
+      </c>
+      <c r="C3" s="67">
+        <v>27</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B4" s="92">
         <v>45720</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C4" s="90">
         <v>46</v>
       </c>
-      <c r="D3" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="93"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="94"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="93"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="94"/>
-    </row>
-    <row r="6" spans="1:5" ht="35.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="93"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="94"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="90"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="91"/>
+    </row>
+    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
